--- a/Resources/data/Retorno Países OCDE y AL - Actualización 04-08-2020.xlsx
+++ b/Resources/data/Retorno Países OCDE y AL - Actualización 04-08-2020.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="380">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -1314,6 +1314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">El 1 de febrero, el Departamento de Educación acordó reabrir las escuelas especiales con un 50% de capacidad el jueves 11 de febrero y las clases especiales en las escuelas ordinarias el lunes 22 de febrero. [82] [83] [84] El jueves 11 de febrero, hasta 4.000 niños con necesidades educativas adicionales regresaron a la educación presencial cuando las escuelas especiales de todo el país reabrieron sus puertas, según los planes acordados entre el Departamento de Educación y los sindicatos de maestros y SNA. . [85] [86] [87]
 En marzo, seegún el nuevo plan revisado Living with COVID-19 del Gobierno de Irlanda llamado "The Path Ahead",  se inicio con clases en los niveles primario y postprimario, el Gobierno ha decidido un regreso gradual de los estudiantes a la educación en la escuela. Etapas:
 El lunes 1 de marzo, los cuatro primeros grupos de clases del nivel primario - Infantes de primer y último año, primera y segunda clase - y los alumnos del Leaving Certificate de último año volverán a la oferta escolar. Esta fase también verá un regreso a la asistencia total para los niños en las escuelas especiales, así como para los niños en las clases preescolares de inicio temprano y las clases especiales de intervención temprana para los niños con autismo o discapacidad auditiva.
@@ -1343,6 +1350,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Se inició con alumnos de preescolar y de los primeros cuatro cursos de primaria. 20% del alumnado, el 80% restante (1,9 millones de estudiantes) seguirá con clases virtuales, y su vuelta se hará en varias fases para evitar un nuevo pico de infecciones.
 Primera fase, preescolar y hasta los 10 años, en las llamadas zonas verdes, con bajo índice de morbilidad, o en las que más de un 70% de la población por encima de los 50 años ha sido vacunada.
 La segunda fase, a partir del 23 de febrero, contempla la vuelta a las aulas a partir de los 10 a los 18 años en ciudades con bajo índice de contagios o con más del 70% de vacunación.
@@ -1425,6 +1439,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Estaban incorporados, sin embargo el 06 de marzo se cerraron las escuelas por altas tasas de contagios. Principalmente en las regiones del sur, Basilicata y Molise, son actualmente zonas rojas.
 De acuerdo con el Comunicado de prensa del Consejo de Ministros n. 10, del 7 al 30 de abril de 2021 la realización en presencia de los servicios educativos para la infancia y el jardín de infancia, así como la actividad didáctica del primer ciclo de educación y el primer año de Bachillerato. Para los grados posteriores de educación, las actividades se confirman en presencia del 50% al 75% de la población estudiantil en la zona naranja mientras que en la zona roja las actividades relacionadas se realizan a distancia, garantizando en todo caso la posibilidad de Realización de actividades presenciales para los alumnos con discapacidad y necesidades educativas especiales.
 </t>
@@ -1444,6 +1465,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">En regiones como Lombardía el regreso a clases presenciales se realizó con un aforo del 50% de los alumnos, escalonados en dos tandas: un 35% entró a las 8:00 am, y el restante 15% entró a las 9:30am, esto para evitar aglomeraciones. Sin embargo, el gobierno italiano decretó la habilitación para el regreso a clases en todo el país con presencia de entre el 50% y el 75% de la capacidad, siguiendo medidas de limpieza e higiene, dentro de las cuales se resalta el uso de mascarilla obligatorio, mantener medidas de distanciamiento social y la limpieza de los salones y el material de las escuelas.
 </t>
     </r>
@@ -1574,9 +1602,6 @@
     <t>https://www.eluniversal.com.mx/mundo/paises-dan-lecciones-del-regreso-clases</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>si</t>
   </si>
   <si>
@@ -1612,6 +1637,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Recomendaciones de la Agencia de Educación Nacional para el comienzo del </t>
     </r>
     <r>
@@ -1747,15 +1779,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="178" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="177" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1814,13 +1846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1861,9 +1886,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1878,14 +1925,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1899,55 +1939,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1960,29 +1955,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1999,7 +1979,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2007,13 +1994,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2028,19 +2037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,7 +2061,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,19 +2079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,7 +2103,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,7 +2133,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,25 +2187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,13 +2199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,43 +2223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2232,25 +2241,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,6 +2291,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2312,24 +2324,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2341,17 +2335,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2371,6 +2354,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2385,142 +2379,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2529,9 +2532,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2544,48 +2547,48 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2594,245 +2597,184 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="48" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3415,48 +3357,48 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="111">
+      <c r="B4" s="90">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111">
+      <c r="B5" s="90">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="111">
+      <c r="B6" s="90">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="111">
+      <c r="B7" s="90">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="90"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="90">
         <v>30</v>
       </c>
     </row>
@@ -3496,16 +3438,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
       <c r="A2" s="14" t="s">
@@ -3551,1829 +3493,1829 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="81" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
-      <c r="A3" s="83" t="s">
+    <row r="3" s="63" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
+      <c r="A3" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="70">
         <v>44287</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="90" t="s">
+      <c r="H3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="97" t="s">
+      <c r="N3" s="78" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="99.75" hidden="1" spans="1:14">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="85" t="s">
+      <c r="D4" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="88" t="s">
+      <c r="F4" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="85" t="s">
+      <c r="I4" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="88" t="s">
+      <c r="L4" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="98" t="s">
+      <c r="N4" s="60" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="104.25" hidden="1" customHeight="1" spans="1:14">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="88" t="s">
+      <c r="F5" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="87" t="s">
+      <c r="I5" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="79" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="100"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" ht="249.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="87" t="s">
+      <c r="I7" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="81" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="169.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="87" t="s">
+      <c r="I8" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="101" t="s">
+      <c r="N8" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="128.25" hidden="1" spans="1:14">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="92" t="s">
+      <c r="D9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="87" t="s">
+      <c r="F9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="87" t="s">
+      <c r="H9" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="87" t="s">
+      <c r="I9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="M9" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="81" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="85.5" hidden="1" spans="1:14">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="91" t="s">
+      <c r="D10" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="102" t="s">
+      <c r="I10" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="98" t="s">
+      <c r="N10" s="60" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="71.25" hidden="1" spans="1:14">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="85" t="s">
+      <c r="D11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="87" t="s">
+      <c r="F11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="87" t="s">
+      <c r="J11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="60" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="100"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="80"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85" t="s">
+      <c r="A13" s="67"/>
+      <c r="B13" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="100"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="80"/>
     </row>
     <row r="14" ht="108.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="85" t="s">
+      <c r="D14" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="87" t="s">
+      <c r="F14" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="87" t="s">
+      <c r="I14" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="100" t="s">
+      <c r="N14" s="80" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" ht="142.5" hidden="1" spans="1:14">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="85" t="s">
+      <c r="D15" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="87" t="s">
+      <c r="F15" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="87" t="s">
+      <c r="I15" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="83" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="100"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" ht="330" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="91" t="s">
+      <c r="E17" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="88" t="s">
+      <c r="F17" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="93" t="s">
+      <c r="H17" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="87" t="s">
+      <c r="I17" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="98" t="s">
+      <c r="N17" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
     </row>
     <row r="18" ht="313.5" hidden="1" spans="1:14">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="91" t="s">
+      <c r="D18" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="88" t="s">
+      <c r="F18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="88" t="s">
+      <c r="I18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="105" t="s">
+      <c r="N18" s="84" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="100"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="80"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="100"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" ht="213.75" hidden="1" spans="1:14">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="85" t="s">
+      <c r="D21" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="88" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="88" t="s">
+      <c r="I21" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="106" t="s">
+      <c r="N21" s="85" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="100"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="80"/>
     </row>
     <row r="23" ht="256.5" hidden="1" spans="1:14">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="85" t="s">
+      <c r="D23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="88" t="s">
+      <c r="F23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="88" t="s">
+      <c r="I23" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="107" t="s">
+      <c r="N23" s="86" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" ht="142.5" hidden="1" spans="1:14">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="87" t="s">
+      <c r="D24" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="88" t="s">
+      <c r="F24" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="88" t="s">
+      <c r="I24" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="107" t="s">
+      <c r="N24" s="86" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" ht="57" hidden="1" spans="1:14">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="92" t="s">
+      <c r="D25" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="87" t="s">
+      <c r="F25" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="87" t="s">
+      <c r="I25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="N25" s="98" t="s">
+      <c r="N25" s="60" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85" t="s">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="100"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="80"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85" t="s">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="100"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="80"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="100"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="80"/>
     </row>
     <row r="29" ht="99.75" hidden="1" spans="1:14">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87" t="s">
+      <c r="F29" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="86" t="s">
+      <c r="H29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="87" t="s">
+      <c r="I29" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="87" t="s">
+      <c r="L29" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="106" t="s">
+      <c r="N29" s="85" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" ht="142.5" hidden="1" spans="1:14">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="92" t="s">
+      <c r="D30" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="87" t="s">
+      <c r="F30" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="87" t="s">
+      <c r="H30" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="101" t="s">
+      <c r="N30" s="81" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="100"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="80"/>
     </row>
     <row r="32" ht="322.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="94" t="s">
+      <c r="E32" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="87" t="s">
+      <c r="F32" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="86" t="s">
+      <c r="H32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="88" t="s">
+      <c r="I32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="86" t="s">
+      <c r="K32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="98" t="s">
+      <c r="N32" s="60" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85" t="s">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85" t="s">
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="100"/>
+      <c r="N33" s="80"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85" t="s">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="100"/>
+      <c r="N34" s="80"/>
     </row>
     <row r="35" ht="171" hidden="1" spans="1:14">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="95" t="s">
+      <c r="D35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="88" t="s">
+      <c r="F35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="88" t="s">
+      <c r="H35" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="88" t="s">
+      <c r="I35" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="107" t="s">
+      <c r="N35" s="86" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C36" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="85" t="s">
+      <c r="D36" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="N36" s="100"/>
+      <c r="N36" s="80"/>
     </row>
     <row r="37" hidden="1" spans="1:14">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85" t="s">
+      <c r="A37" s="67"/>
+      <c r="B37" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="85" t="s">
+      <c r="D37" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="100"/>
+      <c r="N37" s="80"/>
     </row>
     <row r="38" ht="42.75" hidden="1" spans="1:15">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="88" t="s">
+      <c r="F38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="87" t="s">
+      <c r="I38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="98" t="s">
+      <c r="N38" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="O38" s="104"/>
+      <c r="O38" s="56"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85" t="s">
+      <c r="A39" s="67"/>
+      <c r="B39" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="85" t="s">
+      <c r="C39" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="100"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="80"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85" t="s">
+      <c r="A40" s="67"/>
+      <c r="B40" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="85" t="s">
+      <c r="C40" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="100"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="80"/>
     </row>
     <row r="41" ht="85.5" hidden="1" spans="1:14">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="85" t="s">
+      <c r="C41" s="67" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="85" t="s">
+      <c r="D41" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="87" t="s">
+      <c r="F41" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="85" t="s">
+      <c r="H41" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="87" t="s">
+      <c r="I41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="108" t="s">
+      <c r="N41" s="87" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" ht="99.75" hidden="1" spans="1:14">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="85" t="s">
+      <c r="C42" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="92" t="s">
+      <c r="D42" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="87" t="s">
+      <c r="F42" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="88" t="s">
+      <c r="H42" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="86" t="s">
+      <c r="I42" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="87" t="s">
+      <c r="K42" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="98" t="s">
+      <c r="N42" s="60" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" ht="285" hidden="1" spans="1:14">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="95" t="s">
+      <c r="D43" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="88" t="s">
+      <c r="F43" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="69" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="88" t="s">
+      <c r="H43" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="88" t="s">
+      <c r="I43" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="106" t="s">
+      <c r="N43" s="85" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" ht="185.25" hidden="1" spans="1:14">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="95" t="s">
+      <c r="D44" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="88" t="s">
+      <c r="F44" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="88" t="s">
+      <c r="H44" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="88" t="s">
+      <c r="I44" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="N44" s="106" t="s">
+      <c r="N44" s="85" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" ht="85.5" hidden="1" spans="1:14">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="88" t="s">
+      <c r="E45" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="88" t="s">
+      <c r="F45" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="86" t="s">
+      <c r="I45" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="87" t="s">
+      <c r="K45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="101" t="s">
+      <c r="N45" s="81" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" ht="85.5" hidden="1" spans="1:14">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="96" t="s">
+      <c r="D46" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="87" t="s">
+      <c r="F46" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="87" t="s">
+      <c r="H46" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="87" t="s">
+      <c r="I46" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="101" t="s">
+      <c r="N46" s="81" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85" t="s">
+      <c r="A47" s="67"/>
+      <c r="B47" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="85" t="s">
+      <c r="C47" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="100"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="80"/>
     </row>
     <row r="48" ht="114" hidden="1" spans="1:14">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="85" t="s">
+      <c r="C48" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="92" t="s">
+      <c r="D48" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="87" t="s">
+      <c r="F48" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="87" t="s">
+      <c r="H48" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="87" t="s">
+      <c r="I48" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="101" t="s">
+      <c r="N48" s="81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="100"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="80"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85" t="s">
+      <c r="A50" s="67"/>
+      <c r="B50" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="100"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="80"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="100"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="80"/>
     </row>
     <row r="52" ht="114" hidden="1" spans="1:14">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="85" t="s">
+      <c r="D52" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="87" t="s">
+      <c r="F52" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="88" t="s">
+      <c r="H52" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M52" s="87" t="s">
+      <c r="I52" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="100" t="s">
+      <c r="N52" s="80" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" ht="156.75" hidden="1" spans="1:14">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="87" t="s">
+      <c r="D53" s="68" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="85" t="s">
+      <c r="E53" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="87" t="s">
+      <c r="F53" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="86" t="s">
+      <c r="H53" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" s="87" t="s">
+      <c r="I53" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="N53" s="109" t="s">
+      <c r="N53" s="88" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="85" t="s">
+      <c r="C54" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="100"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="80"/>
     </row>
     <row r="55" ht="42.75" hidden="1" spans="1:14">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="85" t="s">
+      <c r="C55" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="85" t="s">
+      <c r="D55" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="85" t="s">
+      <c r="F55" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="87" t="s">
+      <c r="G55" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="87" t="s">
+      <c r="H55" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="86" t="s">
+      <c r="I55" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="86" t="s">
+      <c r="J55" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="85" t="s">
+      <c r="K55" s="67" t="s">
         <v>222</v>
       </c>
-      <c r="L55" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="86" t="s">
+      <c r="L55" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="N55" s="98" t="s">
+      <c r="N55" s="60" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5425,7 +5367,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5440,27 +5382,28 @@
     <col min="8" max="8" width="22.5666666666667" customWidth="1"/>
     <col min="9" max="12" width="5.625" customWidth="1"/>
     <col min="13" max="13" width="56.7083333333333" customWidth="1"/>
-    <col min="14" max="15" width="105.283333333333" customWidth="1"/>
+    <col min="14" max="14" width="105.283333333333" customWidth="1"/>
+    <col min="15" max="15" width="160.875" customWidth="1"/>
     <col min="38" max="38" width="19.2833333333333" customWidth="1"/>
     <col min="39" max="39" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="22.5" spans="3:5">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="18.75" spans="3:5">
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="18.75" spans="3:5">
-      <c r="C4" s="7"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="12" t="s">
         <v>227</v>
       </c>
@@ -5468,10 +5411,10 @@
     </row>
     <row r="5" ht="18.75" spans="3:5">
       <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="7" ht="47.25" customHeight="1" spans="1:15">
       <c r="A7" s="14" t="s">
@@ -5510,13 +5453,13 @@
       <c r="L7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="49" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5536,10 +5479,10 @@
       <c r="E8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="30" t="s">
         <v>231</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -5557,13 +5500,13 @@
       <c r="L8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="O8" s="55" t="s">
+      <c r="O8" s="47" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5583,10 +5526,10 @@
       <c r="E9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>235</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -5604,13 +5547,13 @@
       <c r="L9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="64" t="s">
+      <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="47" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5627,13 +5570,13 @@
       <c r="D10" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>240</v>
       </c>
       <c r="H10" s="18" t="s">
@@ -5651,13 +5594,13 @@
       <c r="L10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="34" t="s">
+      <c r="M10" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="51" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5674,16 +5617,16 @@
       <c r="D11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="30" t="s">
         <v>173</v>
       </c>
       <c r="I11" s="16" t="s">
@@ -5698,13 +5641,13 @@
       <c r="L11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="N11" s="64" t="s">
+      <c r="N11" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="O11" s="67" t="s">
+      <c r="O11" s="52" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5721,37 +5664,37 @@
       <c r="D12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="F12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="48" t="s">
+      <c r="I12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="N12" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="35" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5768,13 +5711,13 @@
       <c r="D13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="30" t="s">
         <v>251</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -5792,13 +5735,13 @@
       <c r="L13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="M13" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="N13" s="64" t="s">
+      <c r="N13" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="67" t="s">
+      <c r="O13" s="52" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5818,34 +5761,34 @@
       <c r="E14" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="31" t="s">
         <v>256</v>
       </c>
       <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="31" t="s">
         <v>32</v>
       </c>
       <c r="J14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="34" t="s">
+      <c r="K14" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="53" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5862,16 +5805,16 @@
       <c r="D15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="33" t="s">
+      <c r="F15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="30" t="s">
         <v>261</v>
       </c>
       <c r="I15" s="16" t="s">
@@ -5883,16 +5826,16 @@
       <c r="K15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="33" t="s">
+      <c r="L15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="M15" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="70" t="s">
+      <c r="O15" s="54" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5909,13 +5852,13 @@
       <c r="D16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="30" t="s">
         <v>66</v>
       </c>
       <c r="H16" s="16" t="s">
@@ -5933,13 +5876,13 @@
       <c r="L16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="N16" s="64" t="s">
+      <c r="N16" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="70" t="s">
+      <c r="O16" s="54" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5956,42 +5899,42 @@
       <c r="D17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="40" t="s">
         <v>268</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="58" t="s">
+      <c r="K17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="N17" s="72" t="s">
+      <c r="N17" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="73"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="P17" s="56"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A18" s="24" t="s">
         <v>4</v>
       </c>
@@ -6004,41 +5947,41 @@
       <c r="D18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="38" t="s">
+      <c r="F18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="I18" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="38" t="s">
+      <c r="I18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="O18" s="55" t="s">
+      <c r="O18" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" ht="25" customHeight="1" spans="1:15">
+    <row r="19" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
@@ -6051,13 +5994,13 @@
       <c r="D19" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="30" t="s">
         <v>281</v>
       </c>
       <c r="H19" s="16" t="s">
@@ -6075,13 +6018,13 @@
       <c r="L19" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="M19" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="47" t="s">
         <v>284</v>
       </c>
     </row>
@@ -6098,19 +6041,19 @@
       <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="30" t="s">
         <v>32</v>
       </c>
       <c r="J20" s="16" t="s">
@@ -6119,16 +6062,16 @@
       <c r="K20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L20" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="33" t="s">
+      <c r="L20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="N20" s="64" t="s">
+      <c r="N20" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="47" t="s">
         <v>287</v>
       </c>
     </row>
@@ -6148,16 +6091,16 @@
       <c r="E21" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="33" t="s">
+      <c r="F21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>288</v>
       </c>
       <c r="H21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="30" t="s">
         <v>32</v>
       </c>
       <c r="J21" s="16" t="s">
@@ -6169,13 +6112,13 @@
       <c r="L21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="M21" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="N21" s="74" t="s">
+      <c r="N21" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="52" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6195,34 +6138,34 @@
       <c r="E22" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="I22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="34" t="s">
+      <c r="I22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="75" t="s">
+      <c r="O22" s="57" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6239,13 +6182,13 @@
       <c r="D23" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="46" t="s">
+      <c r="F23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>296</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -6263,13 +6206,13 @@
       <c r="L23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="55" t="s">
+      <c r="M23" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="N23" s="64" t="s">
+      <c r="N23" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="O23" s="64" t="s">
+      <c r="O23" s="50" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6283,40 +6226,40 @@
       <c r="C24" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="47" t="s">
+      <c r="D24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="48" t="s">
+      <c r="F24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="49" t="s">
+      <c r="I24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="M24" s="48" t="s">
+      <c r="M24" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="N24" s="76" t="s">
+      <c r="N24" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="36" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6333,19 +6276,19 @@
       <c r="D25" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="33" t="s">
+      <c r="F25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="33" t="s">
+      <c r="I25" s="30" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="16" t="s">
@@ -6357,13 +6300,13 @@
       <c r="L25" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="33" t="s">
+      <c r="M25" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="N25" s="64" t="s">
+      <c r="N25" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="O25" s="55" t="s">
+      <c r="O25" s="47" t="s">
         <v>305</v>
       </c>
     </row>
@@ -6383,13 +6326,13 @@
       <c r="E26" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="30" t="s">
         <v>308</v>
       </c>
       <c r="I26" s="16" t="s">
@@ -6404,13 +6347,13 @@
       <c r="L26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="M26" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="N26" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="O26" s="33" t="s">
+      <c r="O26" s="30" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6430,10 +6373,10 @@
       <c r="E27" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="30" t="s">
         <v>310</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -6451,13 +6394,13 @@
       <c r="L27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="33" t="s">
+      <c r="M27" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="N27" s="64" t="s">
+      <c r="N27" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="O27" s="64" t="s">
+      <c r="O27" s="50" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6474,16 +6417,16 @@
       <c r="D28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="30" t="s">
         <v>113</v>
       </c>
       <c r="I28" s="16" t="s">
@@ -6498,13 +6441,13 @@
       <c r="L28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="N28" s="64" t="s">
+      <c r="N28" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="O28" s="64" t="s">
+      <c r="O28" s="50" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6518,40 +6461,40 @@
       <c r="C29" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="51" t="s">
+      <c r="D29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="F29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="48" t="s">
+      <c r="F29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="H29" s="52" t="s">
+      <c r="H29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="J29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="39" t="s">
+      <c r="J29" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="77" t="s">
+      <c r="N29" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="O29" s="78"/>
+      <c r="O29" s="60"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A30" s="15" t="s">
@@ -6563,40 +6506,40 @@
       <c r="C30" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>319</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="H30" s="54" t="s">
+      <c r="H30" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="57" t="s">
+      <c r="K30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="N30" s="68" t="s">
+      <c r="N30" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="O30" s="79" t="s">
+      <c r="O30" s="61" t="s">
         <v>326</v>
       </c>
     </row>
@@ -6613,13 +6556,13 @@
       <c r="D31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="33" t="s">
+      <c r="F31" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>327</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -6637,13 +6580,13 @@
       <c r="L31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M31" s="55" t="s">
+      <c r="M31" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="N31" s="64" t="s">
+      <c r="N31" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="O31" s="64" t="s">
+      <c r="O31" s="50" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6663,16 +6606,16 @@
       <c r="E32" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="33" t="s">
+      <c r="F32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="I32" s="33" t="s">
+      <c r="I32" s="30" t="s">
         <v>32</v>
       </c>
       <c r="J32" s="16" t="s">
@@ -6684,13 +6627,13 @@
       <c r="L32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M32" s="33" t="s">
+      <c r="M32" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="N32" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="55" t="s">
+      <c r="O32" s="47" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6707,13 +6650,13 @@
       <c r="D33" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="E33" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="55" t="s">
+      <c r="F33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="47" t="s">
         <v>333</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -6722,7 +6665,7 @@
       <c r="I33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="30" t="s">
         <v>141</v>
       </c>
       <c r="K33" s="16" t="s">
@@ -6731,13 +6674,13 @@
       <c r="L33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M33" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="N33" s="64" t="s">
+      <c r="N33" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="64" t="s">
+      <c r="O33" s="50" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6746,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>212</v>
@@ -6757,35 +6700,35 @@
       <c r="E34" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="30" t="s">
         <v>215</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="I34" s="33" t="s">
+      <c r="I34" s="30" t="s">
         <v>32</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="K34" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="33" t="s">
+      <c r="N34" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" s="52" t="s">
         <v>338</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="O34" s="67" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
@@ -6795,44 +6738,44 @@
       <c r="B35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="56" t="s">
+      <c r="D35" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="G35" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="H35" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="H35" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="57" t="s">
+      <c r="N35" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="61" t="s">
         <v>342</v>
-      </c>
-      <c r="N35" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="O35" s="79" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
@@ -6848,14 +6791,14 @@
       <c r="D36" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>344</v>
+      <c r="F36" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>343</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>35</v>
@@ -6872,14 +6815,14 @@
       <c r="L36" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="55" t="s">
+      <c r="M36" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="N36" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="50" t="s">
         <v>345</v>
-      </c>
-      <c r="N36" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="O36" s="64" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
@@ -6893,18 +6836,18 @@
         <v>220</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="30" t="s">
         <v>221</v>
       </c>
       <c r="I37" s="16" t="s">
@@ -6914,38 +6857,38 @@
         <v>127</v>
       </c>
       <c r="K37" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="L37" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>350</v>
       </c>
       <c r="M37" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="N37" s="64" t="s">
+      <c r="N37" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="28" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="30" t="s">
-        <v>352</v>
-      </c>
-    </row>
     <row r="62" ht="18.75" spans="3:4">
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="5"/>
     </row>
     <row r="63" ht="18.75" spans="4:4">
       <c r="D63" s="12"/>
     </row>
     <row r="64" ht="18.75" spans="4:4">
-      <c r="D64" s="31"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" ht="18.75" spans="4:4">
-      <c r="D65" s="31"/>
+      <c r="D65" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N39">
@@ -7011,13 +6954,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>354</v>
-      </c>
-      <c r="D2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -7094,7 +7037,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -7105,7 +7048,7 @@
         <v>181</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -7135,10 +7078,10 @@
         <v>181</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -7171,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -7248,7 +7191,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -7259,7 +7202,7 @@
         <v>110</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7270,7 +7213,7 @@
         <v>116</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -7281,7 +7224,7 @@
         <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -7303,7 +7246,7 @@
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -7314,7 +7257,7 @@
         <v>125</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -7325,7 +7268,7 @@
         <v>132</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -7336,7 +7279,7 @@
         <v>137</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -7347,7 +7290,7 @@
         <v>138</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -7355,7 +7298,7 @@
         <v>144</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="3:4">
@@ -7363,7 +7306,7 @@
         <v>146</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="3:4">
@@ -7371,7 +7314,7 @@
         <v>148</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -7379,7 +7322,7 @@
         <v>153</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -7387,7 +7330,7 @@
         <v>157</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="3:4">
@@ -7395,7 +7338,7 @@
         <v>162</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="3:4">
@@ -7403,27 +7346,27 @@
         <v>163</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/data/Retorno Países OCDE y AL - Actualización 04-08-2020.xlsx
+++ b/Resources/data/Retorno Países OCDE y AL - Actualización 04-08-2020.xlsx
@@ -1779,11 +1779,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="177" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="178" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1886,6 +1886,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1895,7 +1910,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1918,7 +1994,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,53 +2009,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1987,36 +2017,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2079,49 +2079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2139,7 +2109,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,13 +2151,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,25 +2205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2199,55 +2235,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,6 +2294,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2315,15 +2324,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2335,6 +2335,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2356,11 +2367,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2379,151 +2388,142 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2534,7 +2534,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2546,7 +2546,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2588,17 +2587,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2614,44 +2607,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2684,24 +2665,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2723,25 +2692,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3357,48 +3326,48 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="79">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="79">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="90"/>
+      <c r="B8" s="79"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="79">
         <v>30</v>
       </c>
     </row>
@@ -3438,1884 +3407,1884 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="63" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
-      <c r="A3" s="65" t="s">
+    <row r="3" s="52" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="59">
         <v>44287</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="65" t="s">
+      <c r="J3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="65" t="s">
+      <c r="K3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="65" t="s">
+      <c r="L3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="65" t="s">
+      <c r="M3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="67" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="99.75" hidden="1" spans="1:14">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="67" t="s">
+      <c r="I4" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="104.25" hidden="1" customHeight="1" spans="1:14">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="68" t="s">
+      <c r="I5" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="80"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" ht="249.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="68" t="s">
+      <c r="F7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="68" t="s">
+      <c r="I7" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="70" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="169.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="67" t="s">
+      <c r="D8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="68" t="s">
+      <c r="F8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="68" t="s">
+      <c r="I8" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="81" t="s">
+      <c r="N8" s="70" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="128.25" hidden="1" spans="1:14">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="F9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="68" t="s">
+      <c r="H9" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="68" t="s">
+      <c r="I9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="81" t="s">
+      <c r="N9" s="70" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="85.5" hidden="1" spans="1:14">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="82" t="s">
+      <c r="I10" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="50" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="71.25" hidden="1" spans="1:14">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="67" t="s">
+      <c r="D11" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="68" t="s">
+      <c r="F11" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="68" t="s">
+      <c r="J11" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="60" t="s">
+      <c r="N11" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="80"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="69"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="80"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="69"/>
     </row>
     <row r="14" ht="108.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="67" t="s">
+      <c r="D14" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="68" t="s">
+      <c r="F14" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="68" t="s">
+      <c r="I14" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="N14" s="69" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" ht="142.5" hidden="1" spans="1:14">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="67" t="s">
+      <c r="D15" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="68" t="s">
+      <c r="F15" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="68" t="s">
+      <c r="I15" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="72" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="80"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="69"/>
     </row>
     <row r="17" ht="330" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="68" t="s">
+      <c r="I17" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" ht="313.5" hidden="1" spans="1:14">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="72" t="s">
+      <c r="D18" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="69" t="s">
+      <c r="I18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="84" t="s">
+      <c r="N18" s="73" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="80"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="69"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="80"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="69"/>
     </row>
     <row r="21" ht="213.75" hidden="1" spans="1:14">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="67" t="s">
+      <c r="D21" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="56"/>
+      <c r="G21" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="69" t="s">
+      <c r="I21" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="85" t="s">
+      <c r="N21" s="74" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="80"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="69"/>
     </row>
     <row r="23" ht="256.5" hidden="1" spans="1:14">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="67" t="s">
+      <c r="D23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="69" t="s">
+      <c r="I23" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="86" t="s">
+      <c r="N23" s="75" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" ht="142.5" hidden="1" spans="1:14">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="68" t="s">
+      <c r="D24" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="69" t="s">
+      <c r="I24" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="86" t="s">
+      <c r="N24" s="75" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" ht="57" hidden="1" spans="1:14">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="73" t="s">
+      <c r="D25" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="68" t="s">
+      <c r="F25" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="68" t="s">
+      <c r="I25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="50" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67" t="s">
+      <c r="A26" s="56"/>
+      <c r="B26" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="80"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="69"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="80"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="69"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67" t="s">
+      <c r="A28" s="56"/>
+      <c r="B28" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="80"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="69"/>
     </row>
     <row r="29" ht="99.75" hidden="1" spans="1:14">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="68" t="s">
+      <c r="F29" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="68" t="s">
+      <c r="I29" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="68" t="s">
+      <c r="L29" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="85" t="s">
+      <c r="N29" s="74" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" ht="142.5" hidden="1" spans="1:14">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="73" t="s">
+      <c r="D30" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="68" t="s">
+      <c r="F30" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="68" t="s">
+      <c r="H30" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="70" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="80"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="69"/>
     </row>
     <row r="32" ht="322.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="68" t="s">
+      <c r="F32" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="69" t="s">
+      <c r="I32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="15" t="s">
+      <c r="K32" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="60" t="s">
+      <c r="N32" s="50" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67" t="s">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="80"/>
+      <c r="N33" s="69"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67" t="s">
+      <c r="A34" s="56"/>
+      <c r="B34" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="80"/>
+      <c r="N34" s="69"/>
     </row>
     <row r="35" ht="171" hidden="1" spans="1:14">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="76" t="s">
+      <c r="D35" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="69" t="s">
+      <c r="F35" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="69" t="s">
+      <c r="I35" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="86" t="s">
+      <c r="N35" s="75" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67" t="s">
+      <c r="A36" s="56"/>
+      <c r="B36" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="67" t="s">
+      <c r="D36" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="N36" s="80"/>
+      <c r="N36" s="69"/>
     </row>
     <row r="37" hidden="1" spans="1:14">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="67" t="s">
+      <c r="D37" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="80"/>
+      <c r="N37" s="69"/>
     </row>
     <row r="38" ht="42.75" hidden="1" spans="1:15">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="73" t="s">
+      <c r="E38" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="68" t="s">
+      <c r="I38" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="60" t="s">
+      <c r="N38" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="O38" s="56"/>
+      <c r="O38" s="49"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="80"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="69"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67" t="s">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="80"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="69"/>
     </row>
     <row r="41" ht="85.5" hidden="1" spans="1:14">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="67" t="s">
+      <c r="D41" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="68" t="s">
+      <c r="F41" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="67" t="s">
+      <c r="H41" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="68" t="s">
+      <c r="I41" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="87" t="s">
+      <c r="N41" s="76" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" ht="99.75" hidden="1" spans="1:14">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="73" t="s">
+      <c r="D42" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="68" t="s">
+      <c r="F42" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="69" t="s">
+      <c r="H42" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="15" t="s">
+      <c r="I42" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="68" t="s">
+      <c r="K42" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="60" t="s">
+      <c r="N42" s="50" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" ht="285" hidden="1" spans="1:14">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="76" t="s">
+      <c r="D43" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="69" t="s">
+      <c r="F43" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="H43" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="69" t="s">
+      <c r="I43" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="85" t="s">
+      <c r="N43" s="74" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" ht="185.25" hidden="1" spans="1:14">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="76" t="s">
+      <c r="D44" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="69" t="s">
+      <c r="F44" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="69" t="s">
+      <c r="H44" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="69" t="s">
+      <c r="I44" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="N44" s="85" t="s">
+      <c r="N44" s="74" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" ht="85.5" hidden="1" spans="1:14">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="68" t="s">
+      <c r="G45" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="15" t="s">
+      <c r="I45" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="68" t="s">
+      <c r="K45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="81" t="s">
+      <c r="N45" s="70" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" ht="85.5" hidden="1" spans="1:14">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="77" t="s">
+      <c r="D46" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="68" t="s">
+      <c r="F46" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="68" t="s">
+      <c r="H46" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="68" t="s">
+      <c r="I46" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="81" t="s">
+      <c r="N46" s="70" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="67"/>
-      <c r="B47" s="67" t="s">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="80"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="69"/>
     </row>
     <row r="48" ht="114" hidden="1" spans="1:14">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="73" t="s">
+      <c r="D48" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="68" t="s">
+      <c r="F48" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="68" t="s">
+      <c r="H48" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="68" t="s">
+      <c r="I48" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="81" t="s">
+      <c r="N48" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67" t="s">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="80"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="69"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="67"/>
-      <c r="B50" s="67" t="s">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="80"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="69"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="67"/>
-      <c r="B51" s="67" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="80"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="69"/>
     </row>
     <row r="52" ht="114" hidden="1" spans="1:14">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="67" t="s">
+      <c r="D52" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="68" t="s">
+      <c r="F52" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="69" t="s">
+      <c r="H52" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M52" s="68" t="s">
+      <c r="I52" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="80" t="s">
+      <c r="N52" s="69" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" ht="156.75" hidden="1" spans="1:14">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="68" t="s">
+      <c r="F53" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" s="68" t="s">
+      <c r="I53" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="N53" s="88" t="s">
+      <c r="N53" s="77" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="80"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="69"/>
     </row>
     <row r="55" ht="42.75" hidden="1" spans="1:14">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="67" t="s">
+      <c r="D55" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="67" t="s">
+      <c r="F55" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="68" t="s">
+      <c r="G55" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="68" t="s">
+      <c r="H55" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="67" t="s">
+      <c r="K55" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="L55" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="15" t="s">
+      <c r="L55" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="N55" s="60" t="s">
+      <c r="N55" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="25" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5365,9 +5334,9 @@
   <dimension ref="A2:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5375,1520 +5344,1520 @@
     <col min="1" max="1" width="12.2833333333333" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="13.2083333333333" customWidth="1"/>
     <col min="3" max="3" width="17.7083333333333" customWidth="1"/>
-    <col min="4" max="4" width="23.1416666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.8583333333333" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="85.5666666666667" customWidth="1"/>
-    <col min="8" max="8" width="22.5666666666667" customWidth="1"/>
-    <col min="9" max="12" width="5.625" customWidth="1"/>
-    <col min="13" max="13" width="56.7083333333333" customWidth="1"/>
-    <col min="14" max="14" width="105.283333333333" customWidth="1"/>
-    <col min="15" max="15" width="160.875" customWidth="1"/>
+    <col min="4" max="4" width="23.1416666666667" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.8583333333333" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="85.5666666666667" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5666666666667" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="5.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="56.7083333333333" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="105.283333333333" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="64.8833333333333" customWidth="1"/>
     <col min="38" max="38" width="19.2833333333333" customWidth="1"/>
     <col min="39" max="39" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="22.5" spans="3:5">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="18.75" spans="3:5">
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" ht="18.75" spans="3:5">
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="18.75" spans="3:5">
-      <c r="C5" s="13"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="7" ht="47.25" customHeight="1" spans="1:15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="42" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" ht="24" customHeight="1" spans="1:15">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="16" t="s">
+      <c r="I8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="30" t="s">
+      <c r="L8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="40" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="16" t="s">
+      <c r="I9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="30" t="s">
+      <c r="L9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="40" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="18" t="s">
+      <c r="I10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="31" t="s">
+      <c r="K10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="51" t="s">
+      <c r="O10" s="44" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" ht="28" customHeight="1" spans="1:15">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="30" t="s">
+      <c r="F11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="I11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="30" t="s">
+      <c r="L11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="N11" s="50" t="s">
+      <c r="N11" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="O11" s="52" t="s">
+      <c r="O11" s="45" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A12" s="20" t="s">
+    <row r="12" s="5" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="F12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="35" t="s">
+      <c r="I12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="O12" s="27" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="30" t="s">
+      <c r="F13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="16" t="s">
+      <c r="I13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="30" t="s">
+      <c r="L13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="45" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="31" t="s">
+      <c r="I14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="53" t="s">
+      <c r="O14" s="46" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="30" t="s">
+      <c r="F15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="J15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="30" t="s">
+      <c r="J15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="54" t="s">
+      <c r="O15" s="47" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M16" s="55" t="s">
+      <c r="I16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="O16" s="54" t="s">
+      <c r="O16" s="47" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" ht="25" customHeight="1" spans="1:16">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="I17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="P17" s="56"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A18" s="24" t="s">
+      <c r="P17" s="49"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="35" t="s">
+      <c r="F18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="I18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="35" t="s">
+      <c r="I18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="40" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A19" s="25" t="s">
+    <row r="19" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
+      <c r="A19" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="I19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="16" t="s">
+      <c r="K19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="O19" s="40" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="D20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="30" t="s">
+      <c r="I20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="O20" s="47" t="s">
+      <c r="O20" s="40" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="D21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="I21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="30" t="s">
+      <c r="L21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="52" t="s">
+      <c r="O21" s="45" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="I22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="31" t="s">
+      <c r="I22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="32" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="42" t="s">
+      <c r="F23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="47" t="s">
+      <c r="I23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="O23" s="43" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="35" t="s">
+      <c r="F24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="21" t="s">
+      <c r="I24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="M24" s="35" t="s">
+      <c r="M24" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="N24" s="58" t="s">
+      <c r="N24" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="32" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="I25" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="30" t="s">
+      <c r="I25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="40" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="30" t="s">
+      <c r="I26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="N26" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="O26" s="30" t="s">
+      <c r="O26" s="27" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="30" t="s">
+      <c r="I27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="O27" s="50" t="s">
+      <c r="O27" s="43" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="44" t="s">
+      <c r="D28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M28" s="30" t="s">
+      <c r="I28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="O28" s="43" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="D29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="35" t="s">
+      <c r="F29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="36" t="s">
+      <c r="J29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="O29" s="60"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="35" t="s">
+      <c r="D30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="46" t="s">
+      <c r="F30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="I30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="35" t="s">
+      <c r="I30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N30" s="30" t="s">
+      <c r="N30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="51" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="33" t="s">
+      <c r="D31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="30" t="s">
+      <c r="F31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="H31" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="47" t="s">
+      <c r="H31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="N31" s="50" t="s">
+      <c r="N31" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="43" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="F32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="30" t="s">
+      <c r="I32" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="47" t="s">
+      <c r="O32" s="40" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="47" t="s">
+      <c r="F33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="30" t="s">
+      <c r="I33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="K33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="47" t="s">
+      <c r="K33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="N33" s="50" t="s">
+      <c r="N33" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="43" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="30" t="s">
+      <c r="F34" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="16" t="s">
+      <c r="I34" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="L34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" s="30" t="s">
+      <c r="L34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="N34" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="O34" s="52" t="s">
+      <c r="O34" s="45" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="34" t="s">
+      <c r="D35" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="G35" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="35" t="s">
+      <c r="I35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="N35" s="62" t="s">
+      <c r="N35" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="O35" s="61" t="s">
+      <c r="O35" s="51" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="47" t="s">
+      <c r="F36" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="47" t="s">
+      <c r="I36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="N36" s="50" t="s">
+      <c r="N36" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="O36" s="50" t="s">
+      <c r="O36" s="43" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="I37" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="J37" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="M37" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="N37" s="50" t="s">
+      <c r="N37" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="O37" s="30" t="s">
+      <c r="O37" s="27" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="62" ht="18.75" spans="3:4">
-      <c r="C62" s="29"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" ht="18.75" spans="4:4">
-      <c r="D63" s="12"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" ht="18.75" spans="4:4">
-      <c r="D64" s="29"/>
+      <c r="D64" s="26"/>
     </row>
     <row r="65" ht="18.75" spans="4:4">
-      <c r="D65" s="29"/>
+      <c r="D65" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:N39">
